--- a/Analytics/I1/TGMXcorners_i1.xlsx
+++ b/Analytics/I1/TGMXcorners_i1.xlsx
@@ -82,25 +82,40 @@
     <t>20</t>
   </si>
   <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Genoa</t>
   </si>
   <si>
     <t>Napoli</t>
   </si>
   <si>
-    <t>Cagliari</t>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Como</t>
   </si>
   <si>
     <t>Atalanta</t>
   </si>
   <si>
+    <t>Lecce</t>
+  </si>
+  <si>
     <t>Udinese</t>
   </si>
   <si>
-    <t>Sassuolo</t>
+    <t>Fiorentina</t>
   </si>
   <si>
     <t>Milan</t>
@@ -109,46 +124,31 @@
     <t>Roma</t>
   </si>
   <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
     <t>Monza</t>
   </si>
   <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Lazio</t>
+    <t>Juventus</t>
   </si>
   <si>
     <t>Bologna</t>
   </si>
   <si>
-    <t>Juventus</t>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
   </si>
   <si>
     <t>Empoli</t>
   </si>
   <si>
-    <t>Torino</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("TTGMXcorners")</t>
   </si>
   <si>
-    <t>SUM("TTGMXcorners") / 38</t>
+    <t>SUM("TTGMXcorners") / 11</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>35107.0</v>
+        <v>13274.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>32618.0</v>
+        <v>11679.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>30623.0</v>
+        <v>10560.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>30538.0</v>
+        <v>9396.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>30315.0</v>
+        <v>8240.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>27483.0</v>
+        <v>8095.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>26489.0</v>
+        <v>8093.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>26405.0</v>
+        <v>7955.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>25194.0</v>
+        <v>7402.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>24867.0</v>
+        <v>7361.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>24708.0</v>
+        <v>6787.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>24541.0</v>
+        <v>6458.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>24307.0</v>
+        <v>5337.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>21761.0</v>
+        <v>5170.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>21382.0</v>
+        <v>4319.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>19572.0</v>
+        <v>4223.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>18452.0</v>
+        <v>3891.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>18250.0</v>
+        <v>3746.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>18000.0</v>
+        <v>2780.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>13227.0</v>
+        <v>2285.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>36087.0</v>
+        <v>15581.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>33681.0</v>
+        <v>9556.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
-        <v>31142.0</v>
+        <v>8966.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>30833.0</v>
+        <v>8435.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>29945.0</v>
+        <v>7128.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>27933.0</v>
+        <v>6948.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>27631.0</v>
+        <v>6828.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>27482.0</v>
+        <v>6764.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>26870.0</v>
+        <v>6714.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>26288.0</v>
+        <v>6515.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>25719.0</v>
+        <v>6287.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>24271.0</v>
+        <v>6095.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>20881.0</v>
+        <v>6081.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>20030.0</v>
+        <v>5935.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C16" t="n">
-        <v>19863.0</v>
+        <v>5626.0</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>18620.0</v>
+        <v>5284.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>18240.0</v>
+        <v>5144.0</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>16781.0</v>
+        <v>4708.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C20" t="n">
-        <v>16524.0</v>
+        <v>4363.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C21" t="n">
-        <v>15018.0</v>
+        <v>4093.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>63760.0</v>
+        <v>19355.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1677.8947368421052</v>
+        <v>1759.5454545454545</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>62589.0</v>
+        <v>18995.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1647.078947368421</v>
+        <v>1726.8181818181818</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>62576.0</v>
+        <v>18361.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1646.7368421052631</v>
+        <v>1669.1818181818182</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>61371.0</v>
+        <v>17649.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1615.0263157894738</v>
+        <v>1604.4545454545455</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>60086.0</v>
+        <v>17305.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1581.2105263157894</v>
+        <v>1573.1818181818182</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>56911.0</v>
+        <v>15331.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1497.657894736842</v>
+        <v>1393.7272727272727</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>56034.0</v>
+        <v>15083.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1474.578947368421</v>
+        <v>1371.1818181818182</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>52825.0</v>
+        <v>14954.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1390.1315789473683</v>
+        <v>1359.4545454545455</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>52474.0</v>
+        <v>13689.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1380.8947368421052</v>
+        <v>1244.4545454545455</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>51754.0</v>
+        <v>13302.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1361.9473684210527</v>
+        <v>1209.2727272727273</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>49517.0</v>
+        <v>13239.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1303.078947368421</v>
+        <v>1203.5454545454545</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>44870.0</v>
+        <v>13189.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1180.7894736842106</v>
+        <v>1199.0</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>44170.0</v>
+        <v>12645.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1162.3684210526317</v>
+        <v>1149.5454545454545</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>43487.0</v>
+        <v>12101.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1144.3947368421052</v>
+        <v>1100.090909090909</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>41791.0</v>
+        <v>10719.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1099.7631578947369</v>
+        <v>974.4545454545455</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>41232.0</v>
+        <v>10694.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1085.0526315789473</v>
+        <v>972.1818181818181</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>39131.0</v>
+        <v>10551.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1029.7631578947369</v>
+        <v>959.1818181818181</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="n">
-        <v>38163.0</v>
+        <v>9533.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1004.2894736842105</v>
+        <v>866.6363636363636</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>33470.0</v>
+        <v>9027.0</v>
       </c>
       <c r="D20" t="n">
-        <v>880.7894736842105</v>
+        <v>820.6363636363636</v>
       </c>
     </row>
     <row r="21">
@@ -969,10 +969,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>31467.0</v>
+        <v>8380.0</v>
       </c>
       <c r="D21" t="n">
-        <v>828.078947368421</v>
+        <v>761.8181818181819</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/I1/TGMXcorners_i1.xlsx
+++ b/Analytics/I1/TGMXcorners_i1.xlsx
@@ -82,61 +82,61 @@
     <t>20</t>
   </si>
   <si>
+    <t>Parma</t>
+  </si>
+  <si>
     <t>Inter</t>
   </si>
   <si>
     <t>Cagliari</t>
   </si>
   <si>
-    <t>Parma</t>
-  </si>
-  <si>
     <t>Verona</t>
   </si>
   <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
     <t>Genoa</t>
   </si>
   <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
     <t>Napoli</t>
   </si>
   <si>
+    <t>Juventus</t>
+  </si>
+  <si>
     <t>Lazio</t>
   </si>
   <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
     <t>Fiorentina</t>
   </si>
   <si>
+    <t>Venezia</t>
+  </si>
+  <si>
     <t>Milan</t>
   </si>
   <si>
-    <t>Roma</t>
-  </si>
-  <si>
     <t>Monza</t>
   </si>
   <si>
-    <t>Juventus</t>
+    <t>Torino</t>
   </si>
   <si>
     <t>Bologna</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Torino</t>
   </si>
   <si>
     <t>Empoli</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>13274.0</v>
+        <v>15537.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>11679.0</v>
+        <v>15419.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>10560.0</v>
+        <v>15153.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>9396.0</v>
+        <v>12084.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>8240.0</v>
+        <v>11894.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>8095.0</v>
+        <v>10685.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>8093.0</v>
+        <v>10578.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>7955.0</v>
+        <v>10335.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>7402.0</v>
+        <v>10309.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>7361.0</v>
+        <v>9698.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>6787.0</v>
+        <v>9267.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>6458.0</v>
+        <v>9196.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>5337.0</v>
+        <v>8783.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>5170.0</v>
+        <v>8579.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>4319.0</v>
+        <v>8046.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>4223.0</v>
+        <v>6657.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>3891.0</v>
+        <v>6104.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>3746.0</v>
+        <v>4341.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>2780.0</v>
+        <v>4288.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>2285.0</v>
+        <v>4226.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
-        <v>15581.0</v>
+        <v>17651.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>9556.0</v>
+        <v>12706.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>8966.0</v>
+        <v>11264.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>8435.0</v>
+        <v>10879.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>7128.0</v>
+        <v>10388.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>6948.0</v>
+        <v>10208.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>6828.0</v>
+        <v>10138.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>6764.0</v>
+        <v>10057.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>6714.0</v>
+        <v>10023.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>6515.0</v>
+        <v>9892.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>6287.0</v>
+        <v>9788.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>6095.0</v>
+        <v>8866.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>6081.0</v>
+        <v>8629.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>5935.0</v>
+        <v>8220.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>5626.0</v>
+        <v>8204.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>5284.0</v>
+        <v>8034.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>5144.0</v>
+        <v>7514.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>4708.0</v>
+        <v>6897.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
-        <v>4363.0</v>
+        <v>6883.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>4093.0</v>
+        <v>4938.0</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +703,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>19355.0</v>
+        <v>26801.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1759.5454545454545</v>
+        <v>2436.4545454545455</v>
       </c>
     </row>
     <row r="3">
@@ -717,10 +717,10 @@
         <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>18995.0</v>
+        <v>23357.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1726.8181818181818</v>
+        <v>2123.3636363636365</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>18361.0</v>
+        <v>22316.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1669.1818181818182</v>
+        <v>2028.7272727272727</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>17649.0</v>
+        <v>22222.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1604.4545454545455</v>
+        <v>2020.1818181818182</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>17305.0</v>
+        <v>21992.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1573.1818181818182</v>
+        <v>1999.2727272727273</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>15331.0</v>
+        <v>21682.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1393.7272727272727</v>
+        <v>1971.090909090909</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>15083.0</v>
+        <v>21489.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1371.1818181818182</v>
+        <v>1953.5454545454545</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>14954.0</v>
+        <v>20543.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1359.4545454545455</v>
+        <v>1867.5454545454545</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>13689.0</v>
+        <v>19584.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1244.4545454545455</v>
+        <v>1780.3636363636363</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>13302.0</v>
+        <v>18564.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1209.2727272727273</v>
+        <v>1687.6363636363637</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>13239.0</v>
+        <v>18529.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1203.5454545454545</v>
+        <v>1684.4545454545455</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>13189.0</v>
+        <v>18092.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1199.0</v>
+        <v>1644.7272727272727</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>12645.0</v>
+        <v>17938.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1149.5454545454545</v>
+        <v>1630.7272727272727</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>12101.0</v>
+        <v>17896.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1100.090909090909</v>
+        <v>1626.909090909091</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>10719.0</v>
+        <v>17568.0</v>
       </c>
       <c r="D16" t="n">
-        <v>974.4545454545455</v>
+        <v>1597.090909090909</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>10694.0</v>
+        <v>16680.0</v>
       </c>
       <c r="D17" t="n">
-        <v>972.1818181818181</v>
+        <v>1516.3636363636363</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>10551.0</v>
+        <v>15167.0</v>
       </c>
       <c r="D18" t="n">
-        <v>959.1818181818181</v>
+        <v>1378.8181818181818</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>9533.0</v>
+        <v>14283.0</v>
       </c>
       <c r="D19" t="n">
-        <v>866.6363636363636</v>
+        <v>1298.4545454545455</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>9027.0</v>
+        <v>14138.0</v>
       </c>
       <c r="D20" t="n">
-        <v>820.6363636363636</v>
+        <v>1285.2727272727273</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>8380.0</v>
+        <v>13517.0</v>
       </c>
       <c r="D21" t="n">
-        <v>761.8181818181819</v>
+        <v>1228.8181818181818</v>
       </c>
     </row>
   </sheetData>
